--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -506,6 +506,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -513,7 +517,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -534,9 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,241 +846,248 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A29:E29"/>
@@ -1097,13 +1104,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -509,14 +509,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,31 +872,31 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -912,112 +912,112 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
@@ -1036,53 +1036,51 @@
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A27:E27"/>
@@ -1104,6 +1102,8 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -25,7 +25,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,12 +166,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Club Name
+Founder
+Phone
+Email
+Total Donor
+Division
+District
+Thana
+Area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Front End</t>
   </si>
@@ -230,18 +277,9 @@
     <t>Donation</t>
   </si>
   <si>
-    <t>Table: Donor Registration:</t>
-  </si>
-  <si>
     <t>Request Blood</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>Blood Club Info</t>
   </si>
   <si>
@@ -279,6 +317,129 @@
   </si>
   <si>
     <t>BDonInfo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Dob</t>
+  </si>
+  <si>
+    <t>Thana/Upzilla</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ClubID</t>
+  </si>
+  <si>
+    <t>Request From</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>No of Unit/Bags</t>
+  </si>
+  <si>
+    <t>Donation Date</t>
+  </si>
+  <si>
+    <t>Days Left</t>
+  </si>
+  <si>
+    <t>Location:(HospitalName, Address)</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Createdat</t>
+  </si>
+  <si>
+    <t>Updatedat</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DonorInfo</t>
+  </si>
+  <si>
+    <t>Club Name</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>Total Donor</t>
+  </si>
+  <si>
+    <t>Thana</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BloodDonation</t>
+  </si>
+  <si>
+    <t>DonationDate</t>
+  </si>
+  <si>
+    <t>HospitalName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DivisionName</t>
+  </si>
+  <si>
+    <t>DistrictName</t>
+  </si>
+  <si>
+    <t>DivisionID</t>
+  </si>
+  <si>
+    <t>DistrictID</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>LocName</t>
+  </si>
+  <si>
+    <t>ApxTextCount</t>
+  </si>
+  <si>
+    <t>LastDonationDate</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -328,7 +489,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +508,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -369,15 +536,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -419,68 +577,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
@@ -494,51 +590,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,289 +928,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A14:E14"/>
+  <mergeCells count="25">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1130,43 +1483,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Front End</t>
   </si>
@@ -610,24 +610,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,13 +638,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -931,47 +931,47 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -999,14 +999,14 @@
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -1041,7 +1041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -1076,7 +1076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1108,7 +1108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1134,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1160,7 +1160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>57</v>
@@ -1183,13 +1183,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1249,189 +1252,198 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1443,20 +1455,11 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1472,28 +1475,28 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>Front End</t>
   </si>
@@ -440,13 +440,16 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,8 +491,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,9 +630,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,14 +662,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -931,7 +951,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,19 +977,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1277,173 +1297,169 @@
         <v>52</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1460,9 +1476,18 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Front End</t>
   </si>
@@ -630,16 +630,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,10 +658,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +951,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,19 +977,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1203,9 +1203,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -1298,58 +1301,58 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1394,18 +1397,18 @@
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -1415,16 +1418,16 @@
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -1434,14 +1437,14 @@
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1454,12 +1457,21 @@
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1476,15 +1488,6 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1511,15 +1514,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Front End</t>
   </si>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,9 +633,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,13 +663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,7 +951,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,19 +977,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1226,12 +1226,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1306,172 +1309,163 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1488,6 +1482,15 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Front End</t>
   </si>
@@ -633,16 +633,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +656,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,7 +951,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,19 +977,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1278,9 +1278,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1309,163 +1312,172 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1482,15 +1494,6 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>Front End</t>
   </si>
@@ -633,9 +633,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,13 +663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,7 +951,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,19 +977,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1180,7 +1180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1195,6 +1195,9 @@
       </c>
       <c r="E8" t="s">
         <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -1243,7 +1246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1253,10 +1256,16 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1312,172 +1321,163 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1494,6 +1494,15 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Front End</t>
   </si>
@@ -277,18 +277,9 @@
     <t>Donation</t>
   </si>
   <si>
-    <t>Request Blood</t>
-  </si>
-  <si>
-    <t>Blood Club Info</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t>Campaign Request</t>
-  </si>
-  <si>
     <t>Division</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>BloodDonation</t>
-  </si>
-  <si>
     <t>DonationDate</t>
   </si>
   <si>
@@ -440,6 +428,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>BloodDonInfo</t>
+  </si>
+  <si>
+    <t>BloodRequest</t>
+  </si>
+  <si>
+    <t>CampRequest</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -590,17 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -610,24 +596,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,15 +621,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,7 +915,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,8 +929,8 @@
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
@@ -957,434 +941,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -1399,11 +1494,11 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -1416,14 +1511,14 @@
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
@@ -1432,6 +1527,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1443,20 +1547,11 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1483,43 +1578,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/admin/plan/BCM Planing.xlsx
+++ b/admin/plan/BCM Planing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Front End</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>CampRequest</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -596,9 +599,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,17 +632,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,47 +918,47 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -990,552 +993,547 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
@@ -1552,6 +1550,15 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1567,28 +1574,28 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
